--- a/Excel/Actualite.xlsx
+++ b/Excel/Actualite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Sport</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">O JPSJ </t>
+  </si>
+  <si>
+    <t>../Activites/image.pneg</t>
   </si>
 </sst>
 </file>
@@ -180,43 +183,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="962025" cy="1438275"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11099800" y="158750"/>
-          <a:ext cx="962025" cy="1438275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,7 +451,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -526,7 +492,9 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -635,6 +603,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>